--- a/medicine/Mort/Liste_des_monuments_aux_morts_du_20e_arrondissement_de_Paris/Liste_des_monuments_aux_morts_du_20e_arrondissement_de_Paris.xlsx
+++ b/medicine/Mort/Liste_des_monuments_aux_morts_du_20e_arrondissement_de_Paris/Liste_des_monuments_aux_morts_du_20e_arrondissement_de_Paris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">20e arrondissement de Paris
 Cet article recense les monuments aux morts du 20e arrondissement de Paris, en France.
@@ -512,34 +524,36 @@
           <t>Liste</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cimetière du Père-Lachaise :
-Monument aux déportés d'Auschwitz-Birkenau, Françoise Salmon (1949)[1]
-Monument aux déportés de Bergen-Belsen, Guillaume d'Astorg (1994)[1]
-Monument aux déportés de Buchenwald-Dora, Louis Bancel (1964)[1],[2]
-Monument aux déportés de Buna-Monowitz-Auschwitz III, Louis Mitelberg (1993)[1]
-Monument aux déportés de Dachau, Louis Docoet et François Spy (1985)[1]
-Monument aux déportés de Flossenbürg (1988)[1]
-Monument aux déportés de Mauthausen, Gérard Choain (1958)[1],[2]
-Monument aux déportés de Natzweiler-Struthof (2004)[1]
-Monument aux déportés de Neuengamme, Pierre Honoré (1949)[1],[2]
-Monument aux déportés d'Oranienburg-Sachsenhausen, Jean-Baptiste Leducq (1970)[1],[2]
-Monument aux déportés de Ravensbrück, Émile Morlaix (1949)[1],[2]
-Monument aux déportés du Convoi 73 (2006)[1]
-Monument aux déportés du travail, I. et J. Gallo[2]
-Monument aux Espagnols morts pour la Liberté, I. et J. Gallo (1969)[1],[2]
-Monument aux morts, Albert-Paul Bartholomé (1899)[2]
-Monument aux héros et martyrs de la Résistance fusillés par les nazis[3]
-Monuments aux garibaldiens de l'Argonne[3]
+Monument aux déportés d'Auschwitz-Birkenau, Françoise Salmon (1949)
+Monument aux déportés de Bergen-Belsen, Guillaume d'Astorg (1994)
+Monument aux déportés de Buchenwald-Dora, Louis Bancel (1964),
+Monument aux déportés de Buna-Monowitz-Auschwitz III, Louis Mitelberg (1993)
+Monument aux déportés de Dachau, Louis Docoet et François Spy (1985)
+Monument aux déportés de Flossenbürg (1988)
+Monument aux déportés de Mauthausen, Gérard Choain (1958),
+Monument aux déportés de Natzweiler-Struthof (2004)
+Monument aux déportés de Neuengamme, Pierre Honoré (1949),
+Monument aux déportés d'Oranienburg-Sachsenhausen, Jean-Baptiste Leducq (1970),
+Monument aux déportés de Ravensbrück, Émile Morlaix (1949),
+Monument aux déportés du Convoi 73 (2006)
+Monument aux déportés du travail, I. et J. Gallo
+Monument aux Espagnols morts pour la Liberté, I. et J. Gallo (1969),
+Monument aux morts, Albert-Paul Bartholomé (1899)
+Monument aux héros et martyrs de la Résistance fusillés par les nazis
+Monuments aux garibaldiens de l'Argonne
 Monument aux personnels des Hôpitaux de Paris victimes du devoir
 Monument des travailleurs municipaux
-Monument aux résistants russes[3]
-Monument aux soldats belges morts en France entre 1914 et 1919[3]
-Monument des soldats grecs morts en France[3]
-Monument aux soldats tchécoslovaques[3]
-Monument aux héros de la Résistance assassinés par les nazis[3]
-Monument aux victimes non reconnues de l'incendie du Bazar de la Charité[4]
+Monument aux résistants russes
+Monument aux soldats belges morts en France entre 1914 et 1919
+Monument des soldats grecs morts en France
+Monument aux soldats tchécoslovaques
+Monument aux héros de la Résistance assassinés par les nazis
+Monument aux victimes non reconnues de l'incendie du Bazar de la Charité
 Monument aux victimes de juin (1836)
 Monument aux victimes non identifiées de l'incendie de l'Opéra Comique (1888)
 Monument aux victimes de l'OAS (2011)
@@ -549,11 +563,11 @@
 Monument aux victimes de la catastrophe aérienne du 16 août 2005 (2007)
 Monument aux victimes de la catastrophe aérienne du 1er juin 2009 (2010)
 Monument à la mémoire des soldats morts pendant le siège de Paris
-Monument de la garde nationale[3]
+Monument de la garde nationale
 Monument à la mémoire des soldats morts pendant le siège de Paris de 1870-1871 (1879)
-Monuments de 1870 aux défenseurs de Belfort, Robichon[3]
-Mémorial des Arméniens tombés pour la France[3]
-Mémorial de l'Afrique française du Nord (2003)[3]
+Monuments de 1870 aux défenseurs de Belfort, Robichon
+Mémorial des Arméniens tombés pour la France
+Mémorial de l'Afrique française du Nord (2003)
 Monument du souvenir (1881)
 Mur des Fédérés
 Stèle à la mémoire des victimes du génocide des Tutsi au Rwanda (2014)</t>
